--- a/Pokemon_Server/data/pkm_item_fling_effects.xlsx
+++ b/Pokemon_Server/data/pkm_item_fling_effects.xlsx
@@ -40,15 +40,9 @@
     <t>berry-effect</t>
   </si>
   <si>
-    <t>Immediately activates the berry's effect on the target.</t>
-  </si>
-  <si>
     <t>herb-effect</t>
   </si>
   <si>
-    <t>Immediately activates the herb's effect on the target.</t>
-  </si>
-  <si>
     <t>paralyze</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>Target will flinch if it has not yet gone this turn.</t>
+  </si>
+  <si>
+    <t>Immediately activates the berry''s effect on the target.</t>
+  </si>
+  <si>
+    <t>Immediately activates the herb''s effect on the target.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,10 +494,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,10 +505,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
